--- a/JavaWork/src/com/ams/work410/Work400-CsvData.xlsx
+++ b/JavaWork/src/com/ams/work410/Work400-CsvData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="36" windowWidth="19200" windowHeight="12096" tabRatio="941"/>
+    <workbookView xWindow="0" yWindow="2475" windowWidth="17565" windowHeight="3540" tabRatio="941"/>
   </bookViews>
   <sheets>
     <sheet name="売上リスト" sheetId="8" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'★売上リスト（名称・金額あり）'!$B$2:$I$33</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">売上リスト!$B$2:$I$33</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
+  <oleSize ref="A13:AK23"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId7"/>
   </pivotCaches>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="33">
   <si>
     <t>取引番号</t>
     <rPh sb="0" eb="2">
@@ -188,12 +189,16 @@
   <si>
     <t>sumQtyByItem</t>
   </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1484,24 +1489,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="2.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.125" hidden="1" customWidth="1"/>
     <col min="7" max="8" width="8" style="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" style="10" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1527,10 +1539,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="B3" s="5">
-        <f>'★売上リスト（名称・金額あり）'!B3</f>
-        <v>10000001</v>
+        <v>1</v>
       </c>
       <c r="C3" s="6">
         <f>'★売上リスト（名称・金額あり）'!C3</f>
@@ -1555,10 +1566,9 @@
       </c>
       <c r="I3" s="9"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="B4" s="5">
-        <f>'★売上リスト（名称・金額あり）'!B4</f>
-        <v>10000001</v>
+        <v>1</v>
       </c>
       <c r="C4" s="6">
         <f>'★売上リスト（名称・金額あり）'!C4</f>
@@ -1583,10 +1593,9 @@
       </c>
       <c r="I4" s="9"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="B5" s="5">
-        <f>'★売上リスト（名称・金額あり）'!B5</f>
-        <v>10000001</v>
+        <v>1</v>
       </c>
       <c r="C5" s="6">
         <f>'★売上リスト（名称・金額あり）'!C5</f>
@@ -1611,10 +1620,9 @@
       </c>
       <c r="I5" s="9"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="B6" s="5">
-        <f>'★売上リスト（名称・金額あり）'!B6</f>
-        <v>10000002</v>
+        <v>2</v>
       </c>
       <c r="C6" s="6">
         <f>'★売上リスト（名称・金額あり）'!C6</f>
@@ -1639,10 +1647,9 @@
       </c>
       <c r="I6" s="9"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="B7" s="5">
-        <f>'★売上リスト（名称・金額あり）'!B7</f>
-        <v>10000002</v>
+        <v>2</v>
       </c>
       <c r="C7" s="6">
         <f>'★売上リスト（名称・金額あり）'!C7</f>
@@ -1667,10 +1674,9 @@
       </c>
       <c r="I7" s="9"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="B8" s="5">
-        <f>'★売上リスト（名称・金額あり）'!B8</f>
-        <v>10000002</v>
+        <v>2</v>
       </c>
       <c r="C8" s="6">
         <f>'★売上リスト（名称・金額あり）'!C8</f>
@@ -1695,10 +1701,9 @@
       </c>
       <c r="I8" s="9"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="B9" s="5">
-        <f>'★売上リスト（名称・金額あり）'!B9</f>
-        <v>10000003</v>
+        <v>3</v>
       </c>
       <c r="C9" s="6">
         <f>'★売上リスト（名称・金額あり）'!C9</f>
@@ -1723,10 +1728,9 @@
       </c>
       <c r="I9" s="9"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="B10" s="5">
-        <f>'★売上リスト（名称・金額あり）'!B10</f>
-        <v>10000003</v>
+        <v>3</v>
       </c>
       <c r="C10" s="6">
         <f>'★売上リスト（名称・金額あり）'!C10</f>
@@ -1751,10 +1755,9 @@
       </c>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="B11" s="5">
-        <f>'★売上リスト（名称・金額あり）'!B11</f>
-        <v>10000003</v>
+        <v>3</v>
       </c>
       <c r="C11" s="6">
         <f>'★売上リスト（名称・金額あり）'!C11</f>
@@ -1779,10 +1782,9 @@
       </c>
       <c r="I11" s="9"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="B12" s="5">
-        <f>'★売上リスト（名称・金額あり）'!B12</f>
-        <v>10000003</v>
+        <v>3</v>
       </c>
       <c r="C12" s="6">
         <f>'★売上リスト（名称・金額あり）'!C12</f>
@@ -1807,10 +1809,9 @@
       </c>
       <c r="I12" s="9"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="B13" s="5">
-        <f>'★売上リスト（名称・金額あり）'!B13</f>
-        <v>10000003</v>
+        <v>3</v>
       </c>
       <c r="C13" s="6">
         <f>'★売上リスト（名称・金額あり）'!C13</f>
@@ -1835,10 +1836,9 @@
       </c>
       <c r="I13" s="9"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="B14" s="5">
-        <f>'★売上リスト（名称・金額あり）'!B14</f>
-        <v>10000003</v>
+        <v>3</v>
       </c>
       <c r="C14" s="6">
         <f>'★売上リスト（名称・金額あり）'!C14</f>
@@ -1863,10 +1863,9 @@
       </c>
       <c r="I14" s="9"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="B15" s="5">
-        <f>'★売上リスト（名称・金額あり）'!B15</f>
-        <v>10000003</v>
+        <v>3</v>
       </c>
       <c r="C15" s="6">
         <f>'★売上リスト（名称・金額あり）'!C15</f>
@@ -1891,10 +1890,9 @@
       </c>
       <c r="I15" s="9"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="B16" s="5">
-        <f>'★売上リスト（名称・金額あり）'!B16</f>
-        <v>10000003</v>
+        <v>3</v>
       </c>
       <c r="C16" s="6">
         <f>'★売上リスト（名称・金額あり）'!C16</f>
@@ -1919,10 +1917,9 @@
       </c>
       <c r="I16" s="9"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:9">
       <c r="B17" s="5">
-        <f>'★売上リスト（名称・金額あり）'!B17</f>
-        <v>10000004</v>
+        <v>4</v>
       </c>
       <c r="C17" s="6">
         <f>'★売上リスト（名称・金額あり）'!C17</f>
@@ -1947,10 +1944,9 @@
       </c>
       <c r="I17" s="9"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9">
       <c r="B18" s="5">
-        <f>'★売上リスト（名称・金額あり）'!B18</f>
-        <v>10000004</v>
+        <v>4</v>
       </c>
       <c r="C18" s="6">
         <f>'★売上リスト（名称・金額あり）'!C18</f>
@@ -1975,10 +1971,9 @@
       </c>
       <c r="I18" s="9"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9">
       <c r="B19" s="5">
-        <f>'★売上リスト（名称・金額あり）'!B19</f>
-        <v>10000004</v>
+        <v>4</v>
       </c>
       <c r="C19" s="6">
         <f>'★売上リスト（名称・金額あり）'!C19</f>
@@ -2003,10 +1998,9 @@
       </c>
       <c r="I19" s="9"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9">
       <c r="B20" s="5">
-        <f>'★売上リスト（名称・金額あり）'!B20</f>
-        <v>10000006</v>
+        <v>6</v>
       </c>
       <c r="C20" s="6">
         <f>'★売上リスト（名称・金額あり）'!C20</f>
@@ -2031,10 +2025,9 @@
       </c>
       <c r="I20" s="9"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:9">
       <c r="B21" s="5">
-        <f>'★売上リスト（名称・金額あり）'!B21</f>
-        <v>10000007</v>
+        <v>7</v>
       </c>
       <c r="C21" s="6">
         <f>'★売上リスト（名称・金額あり）'!C21</f>
@@ -2059,10 +2052,9 @@
       </c>
       <c r="I21" s="9"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:9">
       <c r="B22" s="5">
-        <f>'★売上リスト（名称・金額あり）'!B22</f>
-        <v>10000007</v>
+        <v>7</v>
       </c>
       <c r="C22" s="6">
         <f>'★売上リスト（名称・金額あり）'!C22</f>
@@ -2087,10 +2079,9 @@
       </c>
       <c r="I22" s="9"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:9">
       <c r="B23" s="5">
-        <f>'★売上リスト（名称・金額あり）'!B23</f>
-        <v>10000005</v>
+        <v>5</v>
       </c>
       <c r="C23" s="6">
         <f>'★売上リスト（名称・金額あり）'!C23</f>
@@ -2115,10 +2106,9 @@
       </c>
       <c r="I23" s="9"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:9">
       <c r="B24" s="5">
-        <f>'★売上リスト（名称・金額あり）'!B24</f>
-        <v>10000005</v>
+        <v>5</v>
       </c>
       <c r="C24" s="6">
         <f>'★売上リスト（名称・金額あり）'!C24</f>
@@ -2143,10 +2133,9 @@
       </c>
       <c r="I24" s="9"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:9">
       <c r="B25" s="5">
-        <f>'★売上リスト（名称・金額あり）'!B25</f>
-        <v>10000005</v>
+        <v>5</v>
       </c>
       <c r="C25" s="6">
         <f>'★売上リスト（名称・金額あり）'!C25</f>
@@ -2171,10 +2160,9 @@
       </c>
       <c r="I25" s="9"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:9">
       <c r="B26" s="5">
-        <f>'★売上リスト（名称・金額あり）'!B26</f>
-        <v>10000005</v>
+        <v>5</v>
       </c>
       <c r="C26" s="6">
         <f>'★売上リスト（名称・金額あり）'!C26</f>
@@ -2199,10 +2187,9 @@
       </c>
       <c r="I26" s="9"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:9">
       <c r="B27" s="5">
-        <f>'★売上リスト（名称・金額あり）'!B27</f>
-        <v>10000005</v>
+        <v>5</v>
       </c>
       <c r="C27" s="6">
         <f>'★売上リスト（名称・金額あり）'!C27</f>
@@ -2227,10 +2214,9 @@
       </c>
       <c r="I27" s="9"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:9">
       <c r="B28" s="5">
-        <f>'★売上リスト（名称・金額あり）'!B28</f>
-        <v>10000008</v>
+        <v>8</v>
       </c>
       <c r="C28" s="6">
         <f>'★売上リスト（名称・金額あり）'!C28</f>
@@ -2255,10 +2241,9 @@
       </c>
       <c r="I28" s="9"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:9">
       <c r="B29" s="5">
-        <f>'★売上リスト（名称・金額あり）'!B29</f>
-        <v>10000009</v>
+        <v>9</v>
       </c>
       <c r="C29" s="6">
         <f>'★売上リスト（名称・金額あり）'!C29</f>
@@ -2283,10 +2268,9 @@
       </c>
       <c r="I29" s="9"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:9">
       <c r="B30" s="5">
-        <f>'★売上リスト（名称・金額あり）'!B30</f>
-        <v>10000009</v>
+        <v>9</v>
       </c>
       <c r="C30" s="6">
         <f>'★売上リスト（名称・金額あり）'!C30</f>
@@ -2311,10 +2295,9 @@
       </c>
       <c r="I30" s="9"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:9">
       <c r="B31" s="5">
-        <f>'★売上リスト（名称・金額あり）'!B31</f>
-        <v>10000009</v>
+        <v>9</v>
       </c>
       <c r="C31" s="6">
         <f>'★売上リスト（名称・金額あり）'!C31</f>
@@ -2339,10 +2322,9 @@
       </c>
       <c r="I31" s="9"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:9">
       <c r="B32" s="5">
-        <f>'★売上リスト（名称・金額あり）'!B32</f>
-        <v>10000009</v>
+        <v>9</v>
       </c>
       <c r="C32" s="6">
         <f>'★売上リスト（名称・金額あり）'!C32</f>
@@ -2367,10 +2349,9 @@
       </c>
       <c r="I32" s="9"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:9">
       <c r="B33" s="5">
-        <f>'★売上リスト（名称・金額あり）'!B33</f>
-        <v>10000010</v>
+        <v>10</v>
       </c>
       <c r="C33" s="6">
         <f>'★売上リスト（名称・金額あり）'!C33</f>
@@ -2405,21 +2386,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:3">
       <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
@@ -2427,7 +2408,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:3">
       <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
@@ -2436,7 +2417,7 @@
         <v>アボカド</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:3">
       <c r="B4" s="5" t="s">
         <v>15</v>
       </c>
@@ -2445,7 +2426,7 @@
         <v>いちご</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:3">
       <c r="B5" s="5" t="s">
         <v>16</v>
       </c>
@@ -2454,7 +2435,7 @@
         <v>キウイ</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:3">
       <c r="B6" s="5" t="s">
         <v>17</v>
       </c>
@@ -2463,7 +2444,7 @@
         <v>八朔</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:3">
       <c r="B7" s="5" t="s">
         <v>18</v>
       </c>
@@ -2472,7 +2453,7 @@
         <v>バナナ</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:3">
       <c r="B8" s="5" t="s">
         <v>19</v>
       </c>
@@ -2489,7 +2470,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -2497,23 +2478,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="2.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.125" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="8" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.77734375" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:15">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2553,7 +2534,7 @@
         <v>20164</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:15">
       <c r="B3" s="5">
         <v>10000001</v>
       </c>
@@ -2582,7 +2563,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:15">
       <c r="B4" s="5">
         <v>10000001</v>
       </c>
@@ -2611,7 +2592,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:15">
       <c r="B5" s="5">
         <v>10000001</v>
       </c>
@@ -2640,7 +2621,7 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:15">
       <c r="B6" s="5">
         <v>10000002</v>
       </c>
@@ -2669,7 +2650,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:15">
       <c r="B7" s="5">
         <v>10000002</v>
       </c>
@@ -2698,7 +2679,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:15">
       <c r="B8" s="5">
         <v>10000002</v>
       </c>
@@ -2727,7 +2708,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:15">
       <c r="B9" s="5">
         <v>10000003</v>
       </c>
@@ -2756,7 +2737,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:15">
       <c r="B10" s="5">
         <v>10000003</v>
       </c>
@@ -2785,7 +2766,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:15">
       <c r="B11" s="5">
         <v>10000003</v>
       </c>
@@ -2814,7 +2795,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:15">
       <c r="B12" s="5">
         <v>10000003</v>
       </c>
@@ -2843,7 +2824,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:15">
       <c r="B13" s="5">
         <v>10000003</v>
       </c>
@@ -2872,7 +2853,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:15">
       <c r="B14" s="5">
         <v>10000003</v>
       </c>
@@ -2901,7 +2882,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:15">
       <c r="B15" s="5">
         <v>10000003</v>
       </c>
@@ -2930,7 +2911,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:15">
       <c r="B16" s="5">
         <v>10000003</v>
       </c>
@@ -2959,7 +2940,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:9">
       <c r="B17" s="5">
         <v>10000004</v>
       </c>
@@ -2988,7 +2969,7 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9">
       <c r="B18" s="5">
         <v>10000004</v>
       </c>
@@ -3017,7 +2998,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9">
       <c r="B19" s="5">
         <v>10000004</v>
       </c>
@@ -3046,7 +3027,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="20" spans="2:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9" s="19" customFormat="1">
       <c r="B20" s="20">
         <v>10000006</v>
       </c>
@@ -3075,7 +3056,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="2:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:9" s="19" customFormat="1">
       <c r="B21" s="20">
         <v>10000007</v>
       </c>
@@ -3104,7 +3085,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="22" spans="2:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:9" s="19" customFormat="1">
       <c r="B22" s="20">
         <v>10000007</v>
       </c>
@@ -3133,7 +3114,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="23" spans="2:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:9" s="19" customFormat="1">
       <c r="B23" s="20">
         <v>10000005</v>
       </c>
@@ -3162,7 +3143,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="2:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:9" s="19" customFormat="1">
       <c r="B24" s="20">
         <v>10000005</v>
       </c>
@@ -3191,7 +3172,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="2:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:9" s="19" customFormat="1">
       <c r="B25" s="20">
         <v>10000005</v>
       </c>
@@ -3220,7 +3201,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="2:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:9" s="19" customFormat="1">
       <c r="B26" s="20">
         <v>10000005</v>
       </c>
@@ -3249,7 +3230,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="27" spans="2:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:9" s="19" customFormat="1">
       <c r="B27" s="20">
         <v>10000005</v>
       </c>
@@ -3278,7 +3259,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:9">
       <c r="B28" s="5">
         <v>10000008</v>
       </c>
@@ -3307,7 +3288,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:9">
       <c r="B29" s="5">
         <v>10000009</v>
       </c>
@@ -3336,7 +3317,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:9">
       <c r="B30" s="5">
         <v>10000009</v>
       </c>
@@ -3365,7 +3346,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:9">
       <c r="B31" s="5">
         <v>10000009</v>
       </c>
@@ -3394,7 +3375,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:9">
       <c r="B32" s="5">
         <v>10000009</v>
       </c>
@@ -3423,7 +3404,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:9">
       <c r="B33" s="5">
         <v>10000010</v>
       </c>
@@ -3462,7 +3443,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -3470,17 +3451,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="1.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="1.625" customWidth="1"/>
+    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="C3" s="11" t="s">
         <v>22</v>
       </c>
@@ -3488,7 +3469,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="C4" s="16" t="s">
         <v>24</v>
       </c>
@@ -3500,7 +3481,7 @@
         <v>アボカド</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="C5" s="16" t="s">
         <v>15</v>
       </c>
@@ -3512,7 +3493,7 @@
         <v>いちご</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -3527,7 +3508,7 @@
         <v>キウイ</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="C7" s="16" t="s">
         <v>17</v>
       </c>
@@ -3539,7 +3520,7 @@
         <v>八朔</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="C8" s="16" t="s">
         <v>18</v>
       </c>
@@ -3551,7 +3532,7 @@
         <v>バナナ</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="C9" s="16" t="s">
         <v>19</v>
       </c>
@@ -3563,7 +3544,7 @@
         <v>りんご</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="C10" s="16" t="s">
         <v>23</v>
       </c>
@@ -3571,7 +3552,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="D11"/>
     </row>
   </sheetData>
@@ -3581,7 +3562,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -3589,16 +3570,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="1.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="1.625" customWidth="1"/>
+    <col min="3" max="3" width="12.75" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="C3" s="11" t="s">
         <v>22</v>
       </c>
@@ -3606,7 +3587,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="23" t="s">
         <v>30</v>
       </c>
@@ -3618,7 +3599,7 @@
       </c>
       <c r="E4" s="14"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -3633,7 +3614,7 @@
         <v>アボカド</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -3648,7 +3629,7 @@
         <v>いちご</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -3663,7 +3644,7 @@
         <v>キウイ</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -3678,7 +3659,7 @@
         <v>八朔</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -3693,7 +3674,7 @@
         <v>バナナ</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -3708,7 +3689,7 @@
         <v>りんご</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" s="23" t="s">
         <v>30</v>
       </c>
@@ -3719,7 +3700,7 @@
         <v>4178</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -3734,7 +3715,7 @@
         <v>いちご</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -3749,7 +3730,7 @@
         <v>バナナ</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" s="23" t="s">
         <v>30</v>
       </c>
@@ -3760,7 +3741,7 @@
         <v>4420</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -3775,7 +3756,7 @@
         <v>いちご</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -3790,7 +3771,7 @@
         <v>キウイ</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -3805,7 +3786,7 @@
         <v>八朔</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -3820,7 +3801,7 @@
         <v>バナナ</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" s="23" t="s">
         <v>30</v>
       </c>
@@ -3831,7 +3812,7 @@
         <v>4268</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -3846,7 +3827,7 @@
         <v>いちご</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -3861,7 +3842,7 @@
         <v>キウイ</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" s="23" t="s">
         <v>30</v>
       </c>
@@ -3872,7 +3853,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -3887,7 +3868,7 @@
         <v>八朔</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="C24" s="12" t="s">
         <v>23</v>
       </c>
@@ -3902,7 +3883,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="0" tint="-0.34998626667073579"/>
   </sheetPr>
@@ -3910,14 +3891,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="4.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -3931,7 +3912,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -3945,7 +3926,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -3959,7 +3940,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -3973,7 +3954,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -3987,7 +3968,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>19</v>
       </c>
